--- a/_static/BissapBops/USA-Mart points.xlsx
+++ b/_static/BissapBops/USA-Mart points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanatwell/Box Sync/negogos/OB581/_static/BissapBops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292CC8C-4C56-634D-9EE1-CC8162F48F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E29648-2F39-D148-9DA2-20314FBE2957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3040" windowWidth="25880" windowHeight="17440" xr2:uid="{FEA0177B-F817-B546-9BF6-E94AFE43FD9A}"/>
+    <workbookView xWindow="2920" yWindow="560" windowWidth="25880" windowHeight="17440" xr2:uid="{FEA0177B-F817-B546-9BF6-E94AFE43FD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="USA-Mart points" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,8 +1300,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="32">
-        <f>Points!B18</f>
-        <v>-200</v>
+        <v>-25</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
@@ -1532,7 +1531,7 @@
       <c r="C37" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uRurtzuh8pMBvS6OaJ5yRy/1VHvePkjRnQrTYwsMxkC6AnqgsHh864wb57LiBeUB+vKRe00y94Ncc66Ye0+2lQ==" saltValue="566iTu3CGkPpCNXkfrUHcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0/1NQ0kLu47vpJhYL54TMa6cY+ykTTZoLMbTEflCGcsmgHSudqeV45pCk3twJu7rCdmGgLez0VdPsznSQlF+9Q==" saltValue="5B6FZF/2k/VgfLjGOzVu8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K18:K20"/>
